--- a/biology/Botanique/Heteranthera/Heteranthera.xlsx
+++ b/biology/Botanique/Heteranthera/Heteranthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteranthera est un genre de plantes monocotylédones de la famille des Pontederiaceae, originaires des régions tropicales d'Afrique ou d'Amérique.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Heteranthera sont des plantes herbacées, annuelles ou vivaces, à tiges rampantes, ascendantes ou flottantes, croissant dans l'eau ou dans des sols humides[2]. La forme des feuilles est très variable selon les espèces. Dans certains cas, les feuilles submergées sont sessiles, acuminées ou obtuses et les feuilles émergées sont réniformes, ou oblongues à lancéolées, acuminées ou obtuses, étroites. Dans d'autres cas, elles sont pétiolées, de forme graminoïde ou cordée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Heteranthera sont des plantes herbacées, annuelles ou vivaces, à tiges rampantes, ascendantes ou flottantes, croissant dans l'eau ou dans des sols humides. La forme des feuilles est très variable selon les espèces. Dans certains cas, les feuilles submergées sont sessiles, acuminées ou obtuses et les feuilles émergées sont réniformes, ou oblongues à lancéolées, acuminées ou obtuses, étroites. Dans d'autres cas, elles sont pétiolées, de forme graminoïde ou cordée.
 Inflorescence uniflore ou en épi, au pédoncule glabre ou couvert de poils glandulifères. Spathe embrassant parfois la base de l'inflorescence. Fleurs chasmogames ou cléistogames. Périanthe hypocratériforme, glabre ou à poils glandulifères, à six tépales linéaires, oblongs ou oblongs-lancéolés, obtus à acuminé, de couleur jaune, bleue ou blanche. Androcée à trois étamines, les deux supérieures plus petites; les filaments sont glabres ou velus, jaunes ou pourpres, parfois ailés; anthères sont arrondies ou sagittées, de couleur blanche, jaune ou violette. Gynécée tricarpellaire, uni- ou tri-loculaire, à nombreux rudiments séminaux; style au stigmate capité.
-Le fruit est une capsule contenant de nombreuses graines ovoïdes, portant des ailes longitudinales et striées transversalement[2].
+Le fruit est une capsule contenant de nombreuses graines ovoïdes, portant des ailes longitudinales et striées transversalement.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-Selon Catalogue of Life                                   (14 mai 2015)[3] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 mai 2015) :
 Heteranthera callifolia
 Heteranthera dubia
 Heteranthera limosa
@@ -560,11 +579,11 @@
 Heteranthera seubertiana
 Heteranthera spicata
 Heteranthera zosterifolia
-Selon GRIN            (14 mai 2015)[4] :
+Selon GRIN            (14 mai 2015) :
 Heteranthera dubia (Jacq.) MacMill.
 Heteranthera limosa (Sw.) Willd.
 Heteranthera reniformis Ruiz &amp; Pav.
-Selon ITIS      (14 mai 2015)[5] :
+Selon ITIS      (14 mai 2015) :
 Heteranthera dubia (Jacq.) MacMill.
 Heteranthera limosa (Sw.) Willd.
 Heteranthera mexicana S. Watson
@@ -572,7 +591,7 @@
 Heteranthera peduncularis Benth.
 Heteranthera reniformis Ruiz &amp; Pav.
 Heteranthera rotundifolia (Kunth) Griseb.
-Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2015)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2015) :
 Heteranthera callifolia Rchb. ex Kunth (1843)
 Heteranthera dubia (Jacq.) MacMill. (1892)
 Heteranthera limosa (Sw.) Willd. (1801)
@@ -585,7 +604,7 @@
 Heteranthera seubertiana Solms (1883)
 Heteranthera spicata C.Presl (1830)
 Heteranthera zosterifolia Mart. (1824)
-Selon NCBI  (14 mai 2015)[7] :
+Selon NCBI  (14 mai 2015) :
 Heteranthera dubia
 Heteranthera limosa
 Heteranthera oblongifolia
@@ -593,7 +612,7 @@
 Heteranthera rotundifolia
 Heteranthera seubertiana
 Heteranthera zosterifolia
-Selon The Plant List            (14 mai 2015)[8] :
+Selon The Plant List            (14 mai 2015) :
 Heteranthera callifolia Rchb. ex Kunth
 Heteranthera dubia (Jacq.) MacMill.
 Heteranthera limosa (Sw.) Willd.
@@ -606,7 +625,7 @@
 Heteranthera seubertiana Solms
 Heteranthera spicata C.Presl
 Heteranthera zosterifolia Mart.
-Selon Tropicos                                           (14 mai 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 mai 2015) (Attention liste brute contenant possiblement des synonymes) :
 Heteranthera acuta Willd.
 Heteranthera alismoides Humb. ex Link
 Heteranthera callifolia Rchb. ex Kunth
@@ -661,7 +680,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces (par exemple, Heteranthera zosterifolia) sont utilisées comme plantes ornementales pour décorer les pièces d'eau et les aquariums.
 </t>
@@ -692,10 +713,12 @@
           <t>Aspects culturels et historiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Ruiz et Pavon et publié dans Florae Peruvianae et Chilensis Prodromus en 1794.
-Le nom générique fait référence à l'inégalité de longueur des anthères chez certaines espèces[2].
+Le nom générique fait référence à l'inégalité de longueur des anthères chez certaines espèces.
 </t>
         </is>
       </c>
